--- a/outputs/c__Clostridia.xlsx
+++ b/outputs/c__Clostridia.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -63,18 +63,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -5449,7 +5449,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5459,7 +5459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,6 +5523,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5565,6 +5570,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5607,6 +5617,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5649,6 +5664,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5691,6 +5711,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5733,6 +5758,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5775,6 +5805,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5817,6 +5852,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5859,6 +5899,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5901,6 +5946,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5943,6 +5993,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5985,6 +6040,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6027,6 +6087,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6069,6 +6134,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -6111,6 +6181,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6153,6 +6228,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6195,6 +6275,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6237,6 +6322,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6279,6 +6369,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6321,6 +6416,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6363,6 +6463,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -6405,6 +6510,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -6447,6 +6557,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -6489,6 +6604,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -6531,6 +6651,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -6573,6 +6698,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -6615,6 +6745,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -6657,6 +6792,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -6699,6 +6839,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -6741,6 +6886,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -6783,6 +6933,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -6825,6 +6980,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -6867,6 +7027,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -6909,6 +7074,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6951,6 +7121,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -6993,6 +7168,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -7035,6 +7215,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -7077,6 +7262,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -7119,6 +7309,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -7161,6 +7356,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -7203,6 +7403,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -7245,6 +7450,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -7287,6 +7497,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -7329,6 +7544,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -7371,6 +7591,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -7413,6 +7638,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -7455,6 +7685,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -7497,6 +7732,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -7539,6 +7779,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -7581,6 +7826,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -7623,6 +7873,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -7665,6 +7920,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -7707,6 +7967,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -7749,6 +8014,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -7791,6 +8061,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -7833,6 +8108,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -7875,6 +8155,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -7917,6 +8202,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -7959,9 +8249,14 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -10060,7 +10355,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -11496,7 +11791,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -16676,7 +16971,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -19009,7 +19304,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -19019,7 +19314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19083,6 +19378,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -19125,6 +19425,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -19167,6 +19472,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -19209,6 +19519,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -19251,6 +19566,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -19293,6 +19613,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -19335,6 +19660,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -19377,6 +19707,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -19419,6 +19754,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -19461,6 +19801,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -19503,6 +19848,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -19545,6 +19895,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -19587,6 +19942,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -19629,6 +19989,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -19671,6 +20036,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -19713,6 +20083,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -19755,6 +20130,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -19797,6 +20177,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -19839,6 +20224,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -19881,6 +20271,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -19923,6 +20318,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -19965,6 +20365,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -20007,6 +20412,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -20049,6 +20459,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -20091,6 +20506,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -20133,6 +20553,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -20175,6 +20600,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -20217,6 +20647,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -20259,6 +20694,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -20301,6 +20741,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -20343,6 +20788,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -20385,6 +20835,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -20427,6 +20882,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -20469,6 +20929,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -20511,6 +20976,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -20553,6 +21023,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -20595,6 +21070,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -20637,6 +21117,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -20679,6 +21164,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -20721,6 +21211,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -20763,6 +21258,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -20805,6 +21305,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -20847,6 +21352,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -20889,6 +21399,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -20931,6 +21446,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -20973,6 +21493,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -21015,6 +21540,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -21057,6 +21587,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -21099,6 +21634,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -21141,6 +21681,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -21183,6 +21728,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -21225,6 +21775,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -21267,6 +21822,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -21309,6 +21869,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -21351,6 +21916,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -21393,6 +21963,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -21435,6 +22010,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -21477,6 +22057,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -21519,6 +22104,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -21561,6 +22151,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -21603,6 +22198,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -21645,6 +22245,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -21687,6 +22292,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -21729,6 +22339,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -21771,6 +22386,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -21813,6 +22433,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -21855,6 +22480,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -21897,6 +22527,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -21939,6 +22574,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -21981,6 +22621,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -22023,6 +22668,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -22065,6 +22715,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -22107,6 +22762,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -22149,6 +22809,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -22191,6 +22856,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -22233,6 +22903,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -22275,6 +22950,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -22317,6 +22997,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -22359,6 +23044,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -22401,6 +23091,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -22443,6 +23138,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -22485,6 +23185,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -22527,6 +23232,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -22569,6 +23279,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -22611,6 +23326,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -22653,6 +23373,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -22695,6 +23420,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -22737,6 +23467,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -22779,6 +23514,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -22821,6 +23561,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -22863,6 +23608,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -22905,6 +23655,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -22947,6 +23702,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -22989,6 +23749,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -23031,6 +23796,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -23073,6 +23843,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -23115,6 +23890,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -23157,6 +23937,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -23199,6 +23984,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -23241,6 +24031,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -23283,6 +24078,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -23325,6 +24125,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -23367,6 +24172,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -23409,6 +24219,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -23451,6 +24266,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -23493,6 +24313,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -23535,6 +24360,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -23577,6 +24407,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -23619,6 +24454,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -23661,6 +24501,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -23703,6 +24548,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -23745,6 +24595,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -23787,6 +24642,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -23829,6 +24689,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -23871,6 +24736,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -23913,6 +24783,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -23955,6 +24830,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -23997,6 +24877,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -24039,6 +24924,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -24081,6 +24971,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -24123,6 +25018,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -24165,6 +25065,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -24207,6 +25112,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -24249,6 +25159,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -24291,6 +25206,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -24333,6 +25253,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -24375,6 +25300,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -24417,9 +25347,14 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -24429,7 +25364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24493,6 +25428,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -24535,6 +25475,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -24577,6 +25522,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -24619,6 +25569,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -24661,6 +25616,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -24703,6 +25663,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -24745,6 +25710,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -24787,6 +25757,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -24829,6 +25804,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -24871,6 +25851,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -24913,6 +25898,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -24955,6 +25945,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -24997,6 +25992,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>o__Saccharofermentanales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -25039,6 +26039,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -25081,6 +26086,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -25123,6 +26133,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -25165,6 +26180,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -25207,6 +26227,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -25249,6 +26274,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -25291,6 +26321,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -25333,6 +26368,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -25375,6 +26415,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -25417,6 +26462,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -25459,6 +26509,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -25501,6 +26556,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -25543,6 +26603,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -25585,6 +26650,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -25627,6 +26697,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -25669,6 +26744,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -25711,6 +26791,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -25753,6 +26838,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -25795,6 +26885,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -25837,6 +26932,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -25879,6 +26979,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -25921,6 +27026,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -25963,6 +27073,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -26005,6 +27120,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -26047,6 +27167,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -26089,6 +27214,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -26131,6 +27261,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -26173,6 +27308,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -26215,6 +27355,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -26257,6 +27402,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -26299,6 +27449,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -26341,6 +27496,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -26383,6 +27543,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -26425,6 +27590,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -26467,6 +27637,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -26509,6 +27684,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -26551,6 +27731,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -26593,6 +27778,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -26635,6 +27825,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -26677,9 +27872,14 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -26689,7 +27889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26753,6 +27953,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -26795,6 +28000,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -26837,6 +28047,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -26879,6 +28094,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -26921,6 +28141,11 @@
           <t>o__Saccharofermentanales</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -26963,6 +28188,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -27005,6 +28235,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -27047,6 +28282,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -27089,6 +28329,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -27131,6 +28376,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -27173,6 +28423,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -27215,6 +28470,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -27257,6 +28517,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -27299,6 +28564,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -27341,6 +28611,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -27383,6 +28658,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -27425,6 +28705,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -27467,6 +28752,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -27509,6 +28799,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -27551,6 +28846,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -27593,6 +28893,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -27635,6 +28940,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -27677,6 +28987,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -27719,6 +29034,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -27761,6 +29081,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -27803,6 +29128,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -27845,6 +29175,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -27887,6 +29222,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -27929,6 +29269,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -27971,6 +29316,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -28013,6 +29363,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -28055,6 +29410,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -28097,6 +29457,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -28139,6 +29504,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -28181,6 +29551,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -28223,9 +29598,14 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -28235,7 +29615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28299,6 +29679,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -28341,6 +29726,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -28383,6 +29773,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -28425,6 +29820,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -28467,6 +29867,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -28509,6 +29914,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -28551,6 +29961,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -28593,6 +30008,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -28635,6 +30055,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -28677,6 +30102,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -28719,6 +30149,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -28761,6 +30196,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -28803,6 +30243,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -28845,6 +30290,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -28887,6 +30337,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -28929,6 +30384,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -28971,6 +30431,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -29013,6 +30478,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -29055,6 +30525,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -29097,6 +30572,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -29139,6 +30619,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -29181,6 +30666,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -29223,6 +30713,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -29265,6 +30760,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -29307,6 +30807,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -29349,6 +30854,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -29391,6 +30901,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -29433,6 +30948,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -29475,6 +30995,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -29517,6 +31042,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -29559,6 +31089,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -29601,6 +31136,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -29643,6 +31183,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -29685,6 +31230,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -29727,6 +31277,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -29769,6 +31324,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -29811,6 +31371,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -29853,6 +31418,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -29895,6 +31465,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -29937,6 +31512,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -29979,6 +31559,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -30021,6 +31606,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -30063,6 +31653,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -30105,6 +31700,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -30147,6 +31747,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -30189,6 +31794,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -30231,6 +31841,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -30273,6 +31888,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -30315,6 +31935,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -30357,6 +31982,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -30399,6 +32029,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -30441,6 +32076,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -30483,6 +32123,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -30525,6 +32170,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -30567,6 +32217,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -30609,6 +32264,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -30651,6 +32311,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -30693,6 +32358,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -30735,6 +32405,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -30777,6 +32452,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -30819,6 +32499,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -30861,6 +32546,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -30903,6 +32593,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -30945,6 +32640,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -30987,6 +32687,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -31029,6 +32734,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -31071,6 +32781,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -31113,6 +32828,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -31155,6 +32875,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -31197,6 +32922,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -31239,6 +32969,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -31281,6 +33016,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -31323,6 +33063,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -31365,6 +33110,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -31407,6 +33157,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -31449,6 +33204,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -31491,6 +33251,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -31533,6 +33298,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -31575,6 +33345,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -31617,6 +33392,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -31659,6 +33439,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -31701,6 +33486,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -31743,6 +33533,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -31785,6 +33580,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -31827,6 +33627,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -31869,6 +33674,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -31911,6 +33721,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -31953,6 +33768,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -31995,6 +33815,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -32037,6 +33862,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -32079,6 +33909,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -32121,6 +33956,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -32163,6 +34003,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -32205,6 +34050,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -32247,6 +34097,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -32289,6 +34144,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -32331,6 +34191,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -32373,6 +34238,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -32415,6 +34285,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -32457,6 +34332,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -32499,6 +34379,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -32541,6 +34426,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -32583,6 +34473,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -32625,6 +34520,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -32667,6 +34567,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -32709,6 +34614,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -32751,6 +34661,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -32793,6 +34708,11 @@
           <t>o__Peptostreptococcales</t>
         </is>
       </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -32835,6 +34755,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -32877,6 +34802,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -32919,6 +34849,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -32961,6 +34896,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -33003,6 +34943,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -33045,6 +34990,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -33087,6 +35037,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -33129,6 +35084,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -33171,6 +35131,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -33213,6 +35178,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -33255,6 +35225,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -33297,6 +35272,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -33339,6 +35319,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -33381,6 +35366,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -33423,6 +35413,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -33465,6 +35460,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -33507,6 +35507,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -33549,6 +35554,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -33591,6 +35601,11 @@
           <t>o__Oscillospirales</t>
         </is>
       </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -33633,6 +35648,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -33675,6 +35695,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -33717,6 +35742,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -33759,6 +35789,11 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -33801,8 +35836,13 @@
           <t>o__Lachnospirales</t>
         </is>
       </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/c__Clostridia.xlsx
+++ b/outputs/c__Clostridia.xlsx
@@ -18,6 +18,8 @@
     <sheet name="f__Lachnospiraceae-t-p" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="g__Ruminococcus_E-t-p" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -43822,6 +43824,7402 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Acetivibrionales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Clostridiales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Eubacteriales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>o__Saccharofermentanales</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>o__TANB77</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>o__Tissierellales</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG440</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-5.392180339505217</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-18.84284344749117</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-15.59798759409465</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.5597429226464037</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03958277868931998</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.383881040347651</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1.030914856690721</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.669990094102548</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-3.257018993061872</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>hRUG890</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-7.064523678836948</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-22.59746950558516</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-12.56710255456002</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.02746838858924329</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.5723486171959304</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.847342053719</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-2.354364954185975</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2.337374410788227</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-2.656401968055534</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-9.900614744168836</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-24.02821626806573</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-17.50097246592287</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.7441614289563896</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1.188127636099749</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1.60673926866522</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-5.033736535948758</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2.028656020876487</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-2.819203138703511</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG025</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-11.19030875262095</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-31.86792759080625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-21.63563171918161</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.02055090014621</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.473822845885132</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2.910225613395583</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-12.50985359524977</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1.859894583351934</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-3.597430372196393</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG729</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-13.16576249249564</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-32.87271832014325</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-25.46079906397816</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.08360332226551437</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.900079083424077</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1.733123855343621</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-12.34806138768896</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.676162597545485</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-3.533801404630608</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG768</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-8.727347179076986</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-41.18823778898037</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-36.48440163962304</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.9765285131423054</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.338049104594319</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-3.38736548392902</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-13.06080259629677</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.43790864073695</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-3.929659186008592</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG721</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6.374687401015894</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-34.20218874250202</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-23.34375704646415</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.023078217552772</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.409711052911641</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-3.715923045998645</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-6.233731466752268</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2.020490274410434</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-4.199260093716233</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG161</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-9.504245022601154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-25.93931345856456</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-19.43213490200058</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.09322659371472511</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3728780186114718</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-2.114068727345631</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-4.261230990961217</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2.632060640146526</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2.855894043765689</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG077</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-12.23567572154477</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-29.46098012357999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-24.93904224542856</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8838549593233569</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.7871594187290237</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2.692918108596338</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-7.195390303267246</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2.140449341608322</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-3.26327520539766</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG725</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-10.386996088583</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-26.81363325913484</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-25.94541474997148</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.5124814265177368</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1574049913905341</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1.624654252561365</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-7.648616130386917</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-2.260313636643156</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-4.485244851402155</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG162</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-10.70925150237169</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-32.7828413604617</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-22.90686770950546</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.773707583640442</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.7317082505169973</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-2.836324320411067</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-4.50000300431286</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-2.366867779882278</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-3.421687208621073</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG654</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-7.930826292603825</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-31.93527446030124</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-23.18565483603114</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.9396303435384759</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.07872021117831962</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1.961842058255399</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-5.669222545086797</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2.24962313711345</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-3.895189839327629</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG002</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-6.443640484892989</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-24.67856008123386</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-13.95933403329592</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.445184141513566</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.402256669565688</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1.761635015632444</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-3.653891833884757</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-2.763680608203966</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-3.695451507624692</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG778</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-5.484828855862397</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-17.55584115534485</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-14.82450293341823</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.2561961168264999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.9523329606274837</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1.007999132155544</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.4829336808832165</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.023413593075749</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-3.062077334250758</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG032</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-11.07730012275055</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-44.46586897103796</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-29.29985167437214</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.3335822064090974</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.798501864536333</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-3.35038321709867</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-9.766152287385717</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2.193635424660892</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-3.823581944239974</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG001</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-5.354872811948301</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-30.18805006845988</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-28.85308777428535</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.4718531437019241</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.020976516937216</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-3.637472033830966</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-5.847845996111517</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.8485846448795205</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-3.124076278645062</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>hRUG864</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-8.424010422870657</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-27.97094105992505</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-16.04800984258702</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.3356057783682408</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6472844302694036</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2.525375173224447</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4899592860964714</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1.971022152549748</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-2.711000110718976</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG078</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-10.69577086611577</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-29.48547258816708</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-24.85793131781646</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.064870458141877</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7197287249390257</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2.003101906790552</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-11.53813302524435</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-2.171039702844461</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-3.723210138555911</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG004</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-9.754176927639318</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-43.78507837865693</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-22.72710887439256</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.5325734591422532</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.988394522854313</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-3.455171636239529</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-3.344364427433833</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-3.303003899174198</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-5.374509003958651</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG014</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-14.1841142554489</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-36.16595395255406</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-23.76239595249275</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.07584273748230047</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4574439568642062</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-3.102447293934818</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-5.319544511226683</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-2.459718681076061</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-3.546165438903349</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG804</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-9.885406488558418</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-23.09889368540188</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-29.00090174040398</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.2232380118169559</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8743959555714872</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.617041151199319</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-7.920491662587488</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-2.253974324079024</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-4.885200343627504</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>hRUG891</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-8.599756613327996</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-36.4802298406139</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-24.07953121883597</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.05376231738437707</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7641530770989314</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2.31405440268995</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-6.37315832553892</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-2.426373608141227</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-3.227694920207777</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Acetivibrionales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Clostridiales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Eubacteriales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>o__Saccharofermentanales</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>o__TANB77</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>o__Tissierellales</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-7.20955446820701</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-22.77772577096298</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-7.976207705156865</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.2969621857348498</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.7685848120469592</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.014366353815897</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1.507075801788085</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.862507277788574</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.729087548505728</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-4.888075619800946</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-22.75828861215487</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-6.882134804883361</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.6751254510449872</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.5063189156770946</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.1889345070056598</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-2.435873303856805</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-3.338749454021869</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.772800845086568</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-10.00579020173783</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-34.21327964671146</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.932224531931755</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.468353081651628</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9475947842025885</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.6492313646967555</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-5.054785158390212</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2.794443307265735</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-2.456308499331003</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-3.206020182014088</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-14.15170671358689</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-6.179877946459722</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.575548050008356</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.172473936904489</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.3040246014390336</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-3.786659524942849</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-2.852401462184831</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-2.020852803504208</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-3.001348098652951</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-9.150640491271005</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-8.240838810827276</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.9452808201501953</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1520391672007178</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.556231423776071</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1.528110572279189</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-3.01504693837279</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1.650446350110529</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-12.95952291231035</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-30.1849028090812</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-10.10842597135786</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.6995777204422491</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3592220643257334</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1.227997609999385</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-5.850813193468861</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2.965457652575255</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-2.040026705355909</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-7.150920701605513</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-15.6296937388819</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-6.88340572556476</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.24342822885856</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.03725303059107253</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.9067248067090066</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-3.022261046372917</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2.798180830815794</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1.470242691119948</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-6.622996160597313</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-10.70613556408146</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-10.12140822518368</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.855047880622179</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.7842031765048255</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3245953729753261</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-3.561396317504062</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2.82841766682362</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1.664454546935394</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-6.881020925833178</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-25.6292417606752</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-6.659137964589059</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.228851981092681</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4587778583753731</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.6874369345520045</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1.560412711760257</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-3.168430888631452</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1.814612411196777</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-8.566707976683926</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-20.73446894787488</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-12.1898597448163</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.521789571721761</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.2359872222045552</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1.053477186654807</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-7.188856445463291</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-2.958502571676829</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-2.453891865259555</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-5.097382255352942</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-15.25407545520751</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-6.474267174267834</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.445260883473096</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.6874502892769886</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2577804475761666</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-5.866697592996837</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-2.506152572568017</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-2.610818586573071</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-9.60120942855799</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-21.33998847451456</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-11.02526577100409</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.85474140038925</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.224427599384312</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1.500802611311176</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-6.43104326622263</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2.838831236924945</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-2.968047701683412</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-8.495570972802451</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-19.46882081591941</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-9.38385749396808</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1522214651305265</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.7749434994091048</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1.109006050844997</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-2.586599795494307</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-3.034406632146634</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-2.249317768164814</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-9.018614690151782</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-21.33517925738605</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-9.135465682047119</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.9053935103151789</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.188880638476114</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.3183641235058393</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-5.522786763426693</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.978601812897398</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1.923419019113957</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-9.333149630739074</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-17.10906210755803</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-5.998759692983948</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.8415016905733498</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.083814752052487</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.3248341577598902</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.2526447503423816</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2.551536781901918</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1.32528171650353</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>o__Saccharofermentanales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-7.265894042330817</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-14.22364411444809</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-10.95812434141425</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.61633846030666</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8339240993030828</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1.412759874598447</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-3.418837028572057</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-2.818918825093775</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-2.665270984488161</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-9.076750222566561</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-13.57399581503399</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-8.300432204852243</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.9716523056197157</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1240312270640747</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.3469091363260167</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-5.620383020224614</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-2.756203019261262</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-2.898458614435408</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-7.706999364237044</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-20.22731022160951</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-4.859528108190744</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.288746526123985</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.263207087957416</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.1301970749142973</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-3.139689004767362</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-2.836643812823745</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-2.061143030233525</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-11.67010608655824</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-10.44478891214533</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-8.442155276759188</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.124782419462481</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2537283577174467</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.6905008426427864</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-5.934858760402752</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-2.519587709297853</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1.916839072477821</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-5.580940445980324</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-11.58149010255541</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-5.131582452283997</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.9415434129755105</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6463268179235054</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.8914206970417841</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-3.285021583067154</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-2.726466583663827</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1.835343783539154</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-5.350591142472924</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-24.23274499517435</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-11.10255024559178</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.605121728156931</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.434387085054071</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.7499254022959346</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-3.511916600012192</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-3.212867451666814</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-3.374929897834761</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-3.851509610441786</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-15.56116584929022</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-6.359890553982646</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.025036692133905</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1877253858888275</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.5188661393641019</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-4.064584780822522</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-3.13294375523257</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1.66775396729364</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-4.21902574384534</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-10.49626068825878</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.843479864663909</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.9731307374836528</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1809311256490314</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.5928136024170214</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1.134311536840713</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-2.829020199357758</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-1.897722600623061</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-7.901907743163115</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-14.77021584358026</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-9.036336694289181</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.282694404016426</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.607222044780107</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.9653122394240363</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-4.99660078070549</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-2.471883281744532</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-2.510104649357857</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-5.806458373379357</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-12.91428832064956</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-9.583835013280735</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.518789756590192</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.8960433230977223</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.6667667478870758</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-4.591766793139552</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-2.642696906701599</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1.771438745826429</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-6.783345953601406</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-14.9922910319992</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-8.650335680670054</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.4783986763379496</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.3051363497048735</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.6146875261086229</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-3.407100193726749</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-3.196531100814886</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-2.261504500624823</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG476</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-4.645494268857109</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-19.0879139931909</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-8.707031222429595</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0200910436658135</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.025716309252323</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.251921150987413</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1.312945375586733</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-3.061463935969685</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-2.380150461222065</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-5.040222033758265</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-25.31118723577161</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-6.394921587217448</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.050129885459049</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.08614924995690058</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.3236077068430463</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.668908760109582</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-2.774938600719992</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-2.191794068029937</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-6.150214093337368</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-19.06529057791917</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-6.242725366604181</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.2364137056906155</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-1.688775017932506</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.4636096706231561</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.4601133932042581</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-3.280406182543855</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1.6065978671421</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-10.63772279353879</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-12.92757490882208</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-6.204438956205908</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.452204390320867</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2930120099544546</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.077178960813607</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-6.66431644852497</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-2.68776738272219</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1.337994084430723</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG586</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-11.30968603512139</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-6.259695742230634</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-6.064063864262449</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.635311277812966</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-1.666425261014428</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.8079059330361921</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-5.657630180319424</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-2.670813277403631</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1.85197201282896</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-5.593651187083921</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-27.8997457324564</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-6.636707491659054</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1.548230828971029</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.04106709063495302</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.02572265532531272</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-4.328452290061927</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-3.163297475435515</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-2.042899744500117</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-5.273822796753617</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-13.28888191099267</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-6.624103585076022</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1.096325041392454</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7964174789965387</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.5020352231203961</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1.671480621750278</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-2.928044676635229</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1.869551523232402</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-4.358592830806682</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-16.23595859185131</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-3.120220229527062</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.8799667794616823</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.1093036631888548</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.6624468172742473</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-1.502151722735853</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-3.435749085106537</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1.959425047052389</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-7.66147935272019</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-18.55549667666209</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-7.036180006656231</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.6686486892192964</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.2026721982920287</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.7504103454313523</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-4.32645346589779</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-3.324324288481937</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-2.527419701803201</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-7.546989407977436</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-21.21990599525878</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-6.378737566252799</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.9778685747099156</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.380336892325101</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.5420589675434485</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-4.869137439764779</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-3.003624412830926</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-2.289300350733599</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-9.096281008650589</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-18.37583679826023</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-9.860420291352202</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.4277610272110869</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.245262555049764</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.4206172100003226</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-2.279874137986249</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-3.496787442175489</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1.595541043990681</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-5.592816045317297</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-22.60348961073974</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-5.141874604621114</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-2.030853264950983</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9752982208167077</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1.300843263910392</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-4.318415101591665</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-2.877284004256158</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-3.030591725392631</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-8.356350721695707</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-14.11233206960022</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-9.342092926302939</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.5017738025528232</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.4151168614509982</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.8816767776566151</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-5.559452075307521</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-2.892759846011308</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-2.092766659912139</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG598</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-5.258726045111746</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-19.05832088211518</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-9.131286782644947</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-1.533890618421683</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5413238959306569</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1.04345119672991</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-3.12157417984227</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-2.455918779189726</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1.875159492716139</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-6.950476558854258</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-10.66394977703697</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-7.698122427499721</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.06785744536831884</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1.132720251511312</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.1851927217423836</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-5.492638064530651</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-2.892339901008979</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-2.431078301201906</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-7.592976934588824</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-10.11703848429935</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-9.60176067469124</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-1.099594412376857</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.1455406281106601</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.8256514746453235</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-5.368068680608189</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-2.78083649442543</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-2.278419483204353</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-11.44057849279107</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-7.956505624220848</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-15.78430896130439</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-1.256736960983647</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.2803002813047727</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.7898628730079771</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-7.414037077949165</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-3.097995310425818</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-2.323928495281802</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-5.603904886990958</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-17.67392041669725</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-5.576146009714908</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.7282316362882343</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.3428702182978303</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.7018457461306475</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-1.958011630181368</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-2.828935312851791</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1.950882146684033</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-10.84016720867475</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-27.12084004032559</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-10.48635080848362</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.8653214178359783</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.3411303229962961</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.7581575497585838</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-5.492388508245069</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-2.772171041359188</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-2.655189990270584</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-10.07375714332949</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-18.7023768665635</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-8.83154792811643</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.8190794759461913</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.05658511961204993</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.6058112718056822</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-4.603846117182989</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-3.243876637610628</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.954341659386557</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-2.019021402804629</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-9.353279327562499</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-4.484563434774323</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.6186843968928318</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.7084309799569214</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.1158039881566764</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-1.549287898473168</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-2.92105749061591</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-2.160817473039383</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-8.183557687668527</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-25.71405032937638</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-8.567839060247715</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1.272501851455177</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.253328947457476</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.7733908874564911</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-4.149887900915981</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-2.983361408230127</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-2.178165097484711</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-7.614636172333468</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-9.505846432469424</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-6.121921963102666</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1.353832447262696</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.3093008752744307</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.5728487261069555</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-4.204181126469973</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-2.530568404268721</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1.671272755766432</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-7.046277221335821</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-14.77398638559073</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-6.167945817242387</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1.132365392173691</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5038550780302549</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8733649378614076</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-3.906448636675935</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-2.784663640678676</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1.248873871841645</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-4.932701323506913</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-12.8405243797438</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-7.506673407650691</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-1.538853671616423</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.02611593247775818</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.9468814077169828</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-5.272326027651783</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-2.710971731958295</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-2.46382855877301</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-6.143437787490959</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-16.98323749579049</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-5.053682278249984</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.8193769183274628</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.4009023279520174</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.161234689845518</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.3224094798931255</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-2.958360060458306</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.481144113260353</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-3.604232237173469</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-11.94594377341444</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-4.519725854583842</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.9486675261090033</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.3571679393237224</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.05796540615893283</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.9845013292896371</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-2.837044105946083</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-2.129553749121466</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-5.919000629473318</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-10.62341195067671</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-5.79876725408289</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.22151186351891</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8722188529229893</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.1906334733668971</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-4.00587496581238</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-2.700800141800815</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-2.261254586341012</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-6.82699902650895</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-16.79178685952138</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-4.437861816085395</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1.291286969821164</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.4272777585762987</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.6376659547751276</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-5.025119205907367</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-2.609088812130423</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-2.31589212440948</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-2.993692875820678</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-21.22978122065819</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-2.075415746687733</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1.791088876799904</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.06323667011928057</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.4672803231097357</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.2358147422987407</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-3.008192747503357</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.9093641913593093</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>o__Saccharofermentanales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-10.18068616186905</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-14.1739764809706</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-8.471961710935322</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.115055150210271</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.2353040083630434</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.002915426298441</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-2.539391728156156</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-2.559852475735203</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.31657965656701</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-8.226924103114442</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-14.36360658701883</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-7.464554180748283</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.985686859074111</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.4596643946751341</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.6091359221204181</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-3.492416851824815</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-2.485575089447013</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-1.441478107267052</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-7.703168066785965</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-16.29106982118046</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-7.750680663127021</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1.610192714917304</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.4153542390152415</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.613208912092442</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-5.019951335615453</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-3.173094352986504</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-3.059849932458043</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-6.026315975255552</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-19.6144728087992</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-4.139594416815804</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.32021903428966</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5506784172778939</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.3931001203119077</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-2.042179237792708</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-2.777287781909623</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-2.452758824813904</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-5.072513036932922</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-8.404258457454869</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-7.106970370967585</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.9945622938044041</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.58252922492556</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.543158103952379</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-3.069529259931876</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-3.273957878236947</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-2.188587401093715</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-5.934445238170794</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-19.89516428067466</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-9.680632648243186</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.2571529356009553</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.9323305133636179</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.9936291692644377</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-4.508171284059767</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-2.411779129322904</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-2.422071590641614</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-6.54707205808396</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-12.63371828661558</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-5.471678654243617</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.8496419178568421</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.05679097211463151</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.5706294732364113</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-2.648540809937071</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-2.808218986040918</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-2.154519992578142</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-6.105069684222035</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-21.91249002980731</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-4.32320730198714</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-1.979436732436715</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.912059353350432</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1.158587553052669</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-1.777843997132443</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-2.62687864985104</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-2.841475415515142</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-6.175940697489551</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-14.87873482069076</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-4.112267785370062</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.7128488284846346</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.8408102583389518</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.5118411171679331</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-1.690240615709923</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-3.211642210579343</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-1.832243851414426</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-4.375494688616285</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-8.789234084197899</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-5.12007343124402</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.9443485882556427</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.6493588463808195</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.2161223421637305</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.2023537705298343</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-2.669004171501464</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-2.224740212682446</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-8.868028207634918</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-24.99520083558144</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-6.174541019763084</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-1.128514550096999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.4564253171000683</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.8204991013469175</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-3.88026665767108</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-2.438255250365207</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-2.206943869734789</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-7.870608930610668</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-21.63232937471286</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-7.510871288815763</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.8861111691448754</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.05634586213403118</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.6597288598138635</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-3.148055521557903</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-2.886709906045103</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1.880438676116353</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-8.590101222573653</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-21.89948843077953</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-5.371947552467643</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.9870543512657327</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.3465852911738989</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.3973166886622347</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-3.880856139930613</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-2.657272762027987</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-1.577707785094485</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-5.079309919076824</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-16.74081358742808</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-10.2387654018857</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-1.262842196708042</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.122312200621874</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.752170229943309</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-1.60618417262856</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-2.904221248131173</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-2.544327775002692</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-2.504989213004291</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-16.80104054422844</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-5.287445797012741</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.612644254888968</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.7193787008938903</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.1038459342766707</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-1.471014450893086</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-2.562227493151555</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-2.096246412556134</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-4.680985644477614</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-24.47595962929705</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-11.0277625430861</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.039111002289829</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.1117698346940648</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.2493134138406</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-5.741943097972574</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-3.116268826423363</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-2.748174953228442</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-7.115385039760132</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-15.70225654231819</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-4.987786524183701</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.6049242081424893</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-1.095540117982668</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-0.3000441932550805</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-1.459714945230665</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-2.60574605841012</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-2.047301251401339</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-8.324247770452006</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-14.98047799063482</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-4.000123411415991</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.9757027529133528</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.2318555726454171</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.7439869525832136</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-6.676884913630579</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-2.801366650216422</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-2.746549290969845</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-6.042814850500472</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-12.5506847950676</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-4.506424965839142</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.1612289925242476</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-1.832995110440549</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.9634427213282603</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-2.038560364686555</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-2.548227625469398</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-3.189198465470049</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-5.239993308776413</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-14.42474994831701</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-6.359488328774904</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-1.254625427153365</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.6539917703867303</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.5807757147060755</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-1.366353271822653</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-2.981053372721489</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1.843081656893543</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-7.52982774891288</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-17.60252132665313</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-10.51820810825762</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.5886264492362983</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.8551846517179968</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.5433836129080313</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-2.182021721219999</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-3.180463978609486</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-2.258980137881143</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-6.475242139086569</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-19.81440798056343</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-6.277896758241704</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.4489442209869302</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.2557508551163335</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-0.7619197389462257</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-2.241388293544826</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-2.910608800400152</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1.843109792081127</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-8.39835672243361</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-6.772906069318612</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-8.938273382679007</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1.196068344528945</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.5431513884486975</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.7170684701158648</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-4.785443216175616</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-2.824792578740929</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-2.684038221252705</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-5.485188310665034</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-17.39085464666727</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-4.173060300880667</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-1.14321045276403</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.09318153286786135</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.2437507990973426</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-1.763452706609068</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-2.9960092008418</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-1.869209272245947</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-4.915924604806072</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-4.467575098816011</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-7.887022949239335</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.7580641702707032</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.8615020765171655</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.4903525097634249</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-2.916824533703458</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-2.891972210830828</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-1.039039232759876</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-5.857083152596847</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-24.46298586759591</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-7.861314117127537</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-1.514339219573552</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.348473330939088</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.4587064698640656</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-2.900895342839884</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-3.162983570045015</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-2.563200670055884</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-10.69464498324927</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-12.64140170128242</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-6.160130741632509</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-1.535550440453603</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.2420699593555257</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1.200697572784235</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-5.292392458284393</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-2.769044677750753</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1.737302651348221</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-7.203808273504646</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-19.42281017064653</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-17.18832564025196</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.8709597980899993</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.314945745926892</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.7175205260538529</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-3.796082494979322</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-3.07151668958005</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-3.295478311828613</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-7.057332133303873</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-16.68625630047315</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-17.72204484471029</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0.9554660757146438</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.625256057410536</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1.53335757995904</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-4.107700325271384</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-3.538230579904918</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-3.106773620641223</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-7.532700683250769</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-10.43398297995001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-12.0757350955372</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0.7853757166325009</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-1.087222207887993</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.9611516156103874</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-7.275814894399776</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-2.963363037250044</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-2.612015363755369</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG376</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-2.644740804493458</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-12.71079020625712</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-4.395684351203801</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0.9408787546654108</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-1.072691259290923</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.1129104332365702</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-1.92406101233211</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-2.739551549251117</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-1.64240719696728</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-7.469377005350978</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-12.39551939667247</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-9.908490839728838</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.28079238707423</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.4911943614662818</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.7727534225516666</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-3.27704014668891</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-3.217684119889397</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-2.300532899991555</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-8.951679129147015</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-20.90481162273078</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-8.178145932191036</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.5717342314476944</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.400840228059981</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.9406556876837825</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-1.427064610895714</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-2.735249952075426</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-2.972351008769873</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-6.089041645093267</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-25.00993310192842</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-4.887007182089881</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.5508040495418084</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.2874119596514917</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.7107543638612391</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-3.050149575910179</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-2.837088277292882</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1.511499798788035</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-9.988334975612409</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-29.64024643013503</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-15.13581509958131</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.9007819259232037</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.822085634887469</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1.664305945326183</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-5.698256774913785</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-3.414738161828119</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-3.907963043751311</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-5.404693922219601</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-18.99559942243436</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-4.547113789798111</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1.015402448851711</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.5839010115196972</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1.003060279993459</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.1448355346599409</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-2.819504886003758</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-1.663824521684619</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG207</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-4.835545239170095</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-13.03562118084852</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-5.343174745302986</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.2249996675585999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-2.54385990009703</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.2546879999348593</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-3.604315895346777</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-2.537174234697298</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1.089778557682532</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-5.557511137293239</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-17.99849431117506</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-4.129854345188497</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0.1799494196713477</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-2.15751321226964</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.003542739405599306</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-3.856367148628404</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-2.78393780687898</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1.79270981811598</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-7.95764423718322</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-15.64900261800183</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-5.321889078377661</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.4506813137779032</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.3692214863570913</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.3716161544949691</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-4.279782797700213</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-2.927945767282512</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-2.790808907878074</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-6.024928803636709</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-16.10538997991006</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-3.099516920734831</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.378715696596441</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.04018219174638594</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-0.1622117462629145</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-4.323347419393897</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-2.998443640527658</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-2.174521835066791</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-8.668160134551972</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-14.26371199313414</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-7.447902121168433</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.5862851886309461</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.1755065073829523</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.5469624961890327</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-2.965281515903154</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-2.999531096068244</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-3.046631382651205</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-7.590706069107345</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-32.00287713341843</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-17.42479843020254</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-1.264574705315599</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.572059363582457</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1.24120274866377</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-4.399280945579571</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-3.241729965696032</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-3.219719946675169</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-5.491821421222102</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-2.902067282730762</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-5.743175915172999</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1.311696618852309</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9192337216483969</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.7135890844709717</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-1.734090782311017</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-2.511925703871022</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-1.951887464895476</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-6.492899118879827</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-10.30320739763749</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-4.660988850500755</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-1.093891158635623</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.3320622000516716</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.6134397686953674</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-1.891942689586315</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-2.688114835963546</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1.886023723803861</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-5.533163025996163</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-21.40504510962786</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-10.04448106832335</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-1.046771869811195</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.6888067544295239</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.8054746381349128</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-3.964110421342143</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-3.262516089930024</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-1.495100690301525</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-6.147300452434318</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-17.45879976990232</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-5.843221071463337</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-1.051062019580095</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1147636686691642</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.686427327219052</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-2.677081370354481</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-3.296169015504769</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-2.554036400912308</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-9.344077761816921</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-22.75160327072291</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-11.51386492242547</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.9849980515293479</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1929407529310631</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1.952042165436488</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-6.297344225456301</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-3.39236554172594</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-1.119794378887913</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-7.561070451610163</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-17.13865907158597</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-11.39570980372472</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.88242897087177</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.6377777906944094</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-0.8485837877332992</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-6.309138052630278</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-3.029000201226275</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-2.587691411308916</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-7.463748031712195</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-22.34475174258126</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-8.266932527243997</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.9430855517569394</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1978774494597571</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.5304136564495772</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-4.083341070901517</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-2.333214288928204</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-2.374143022427273</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-3.500802581702216</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-8.048762192692509</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-4.328875966857839</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.7981631490154275</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.7200441774192667</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.6980413198324957</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-0.9387049928682196</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-2.811083542522011</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-1.595369393907442</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-5.045153411174933</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-14.30794945019694</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-2.601601542163138</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-1.310834285866871</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.4128342769770054</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.01199269295834531</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-4.689135049257017</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-2.839653250464836</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-2.163672176348036</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-8.907349407705514</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-17.11179765032497</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-7.698327341428124</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-1.176394286497102</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.04037836624445854</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-0.6916908413018759</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-2.310466790096777</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-3.301498197776825</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-2.952057085126267</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-7.051111894692657</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-16.73631342044725</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-4.610277931731006</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.7589003857959791</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-1.69697057010748</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.02984853961841811</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-4.707440777458122</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-2.908056591960638</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-1.493078774422036</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-8.270425822460588</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-6.283217969934553</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-13.09190400648804</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-1.411061469741794</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.5764116234778126</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.7512174939643168</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-4.5651847720566</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-2.780338610308748</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-2.133609287867206</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-7.456958226141037</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-17.68338091562024</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-9.722067290018689</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.1430086597566807</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.0179867878592731</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1.152668599483076</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-3.505987175760606</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-2.823400087265639</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-3.397462145167678</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-7.894419316547777</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-19.81448490822035</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-6.890670224716224</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.8191473302375346</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.6990917636964934</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.6390421960183504</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-4.473799150750401</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-2.763428484360803</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-1.679074537138219</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-3.75889989903206</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-15.90954909096488</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-5.26218156940233</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0.8387394840785193</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-1.376478313630353</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.05666278069519927</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-0.8017561847268121</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-2.718377207957448</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-1.248483388909728</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-8.101721684639784</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-8.683907481816574</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-8.91702423725566</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.4859993544903041</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.6155328243358041</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-0.799578007927683</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-1.336579279316924</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-2.828426834941733</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-1.656727763724321</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-5.2886575718261</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-13.67927636051728</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-3.38281586373227</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1.965023881020322</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.482709379787783</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.9030685243271858</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-4.638759908569533</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-3.43122745613213</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-2.636253110408541</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-9.17760541758264</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-17.68935978330759</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-6.353481861690253</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.4973485969261726</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.7822925793000974</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.5201081073964615</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-0.72782981628343</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-2.679033838483215</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-1.835938643772935</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-8.218039186291012</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-24.09591108299616</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-10.19494633878291</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.7875577663340191</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.3446040628216114</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1.104719791846539</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-3.955521626501678</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-3.514851457140249</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-1.72601950363258</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-8.204502146557264</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-15.97235922848442</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-13.77566855295031</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.6956142874976637</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.2095106512993556</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1.623293184035148</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-2.665755110139421</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-3.299044264189829</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-3.515981109174759</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-11.97105996877426</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-16.66403228864752</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-12.63611063954655</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-1.04489519199087</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.6046791654175871</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1.289092785229516</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-7.406595106337936</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-2.851582142704296</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.9044349070995903</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-6.898061896578791</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-18.67223147268989</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-6.757552533929331</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-1.119846964479188</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.143759917355311</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-0.590065255757019</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-0.7753512484155802</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-3.193088515979126</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-2.10010336809778</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-7.966415644128773</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-18.01146823912694</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-10.14959233608638</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.7105927203613975</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.1864096053258178</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.8143841898184625</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-4.568508834368783</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-2.719827616213265</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-2.018034340633689</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG657</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-2.330490795943718</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-27.7644677481806</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-6.53904090784375</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.05436562218724924</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.9906633933159732</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.8530266110891254</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-0.1661782478962609</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-3.281258170562177</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-2.096656156120195</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG174</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-1.106109105299177</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-17.03971944129267</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-4.024394319464204</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0.8927069987740389</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.0241923584021335</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.1003155962685845</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-0.4701440283132192</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-2.894612690865908</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-1.700037354836822</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-9.039017748341154</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-17.06796733840535</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-4.685129124172732</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.8343196826062391</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.5268628946075837</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.3367110585137361</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-3.564498435903387</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-2.884198951349283</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-2.018170520825325</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-10.79758719427932</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-25.11325725727802</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-10.87491119424238</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-2.194621312723288</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.076082819090272</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1.252236220357923</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-8.715506179346546</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-3.126256169853979</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-3.208301563077439</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG795</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-4.285449740678252</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-24.97468336707137</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-6.779986588588874</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.8559666781318361</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.37898436363777</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.5592942701796568</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-1.020754812377376</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-2.583178753831546</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-2.220229384005763</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-10.26124342759738</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-15.83172870234532</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-7.98145278981301</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-1.549669556127178</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.104984540855485</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-0.4931997428444227</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-5.729756313470447</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-2.654058261029634</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-2.702246963815184</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-6.594906243334752</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-13.11300129607966</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-6.1772271746708</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-1.130258763658464</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.5434674018251031</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.4294340028564033</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-2.10736577310158</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-2.336165501522198</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-1.803255564240329</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>-7.484268653346617</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-22.76759554632515</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-5.449280253026304</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-0.8457336842648286</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.07345658149623656</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-0.7548851709418963</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-1.636396529997531</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-2.663103242220433</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-2.481546710768986</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-8.777782680287762</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-14.03169700270159</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-14.09017547388882</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-1.00782758208728</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.7059289644165981</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1.132120173888133</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-4.545944437864288</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-2.923226340900956</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-1.407966391176568</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>-4.310435645804994</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-15.89740816848477</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-2.674436626655852</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-1.777852790076349</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.4986153074145748</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.0005437086014786551</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.07944883546908538</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-2.504558793723281</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-1.560947643340859</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-6.809305573055151</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-11.15614185417152</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-9.974895619815284</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-1.105855280866341</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.87798772011347</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1.01122154782537</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-1.739568203112684</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-2.660465372947717</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-2.931560518225147</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-7.240208406595975</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-16.88809932526647</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-8.574951196460555</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-0.6721799490522978</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.05130797015319936</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.4875344915309907</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-2.806009189007459</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-2.997728160512677</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-1.442488720678502</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-6.929012345132112</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-11.85628899777147</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-5.141825391497123</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-1.083395137089685</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.2776663548053552</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-0.709291137194887</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-1.963050265464597</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-2.942966136743846</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-1.957922003873053</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-4.04821284962861</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-9.301288634254833</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-5.144932956780784</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-1.903620453715798</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.02093086198956644</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-0.096420757375637</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-0.5270447976642987</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-3.464489892697985</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-0.9388327999103152</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-6.449124805292108</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-16.45230309483254</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-6.736832069525756</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-0.4759363248581426</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.2208172385444093</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-0.9646281634835153</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-0.9368604726967402</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-3.005091588594263</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-1.852787687775675</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>RUG450</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-3.992982213948981</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-21.05627933911342</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-9.217028773857626</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.2580424384694893</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.7275494698146595</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-0.7223186927445072</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-1.495788221294369</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-3.283429266917343</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-2.304925539934766</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-5.486969754613736</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-3.627081380526066</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-4.415378061344065</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.7390325877843912</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-1.220038492575036</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-0.3142998865085886</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-3.078496267779191</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-2.435421811864667</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-1.092769113341171</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-10.43919755399873</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-23.85231363558935</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-7.747076975517732</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-1.17450086541811</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.7370106716268765</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-0.5692429421359294</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-1.394538361659137</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-2.768824832435063</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-2.229352920943379</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-9.823415972772876</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-3.646129581185476</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-4.09446901053713</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-1.203043329198128</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.1549713084463458</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1.164851308021647</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-5.526237612367322</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-3.016234138674045</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-1.600828244929883</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-7.855906796743689</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-22.60237569990235</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-6.696268218865277</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-1.170729841228222</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.01714605132274213</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-0.4708296310019862</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-3.223963875318386</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-2.719040856122187</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-2.30197234922906</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-4.507459015103276</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-12.76816307260531</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-5.640161592467589</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.252435724087964</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-2.456613918723783</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-0.581605729928611</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-1.535425934950198</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-3.006002047197072</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0.967973688043212</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-5.578459297195268</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-11.69576726631858</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-6.116524050865923</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-1.184719213211591</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.2839976537989645</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-0.7820911519954166</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-4.190896288445419</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-2.647755325186973</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-1.603466640864523</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-6.565773078710232</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-11.71229761913086</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-3.295561957675381</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-1.358490265177176</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.4186743475026682</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-0.2996861584211588</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-3.972813135043615</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-2.736308048613756</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-1.981936929824289</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-4.205701043272899</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-5.497246418243584</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-6.003565615917891</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-1.488783152114173</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.7078385482254569</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-0.1233303783167376</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-2.65565164055392</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-2.973661418896188</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-1.289523017681521</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-6.639685145570468</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-11.81352699867013</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-6.914404265837146</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.984352291155446</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.4308129829058219</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1.152133052002969</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-3.235810749678142</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-2.724350765321405</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-1.93985848239115</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-6.986162715542686</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-21.93284689347075</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-5.638356648325677</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.3517974055367385</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.4656125835943037</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-0.5663040692625236</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-2.654225059863573</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-3.317880192423084</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-1.841743087997237</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-11.58846449779393</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-32.17819820300429</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-9.658529239887333</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-1.100263633949725</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.2926197967384522</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-0.958113956633324</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-4.45009445403771</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-3.221218181510486</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-2.339617158957936</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>-3.239284572978078</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-13.65800407432144</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-4.746622340957536</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-0.8968446868475025</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-0.9169522620118056</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-0.3648926140830094</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-4.517127538353546</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-2.82671020987217</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-1.809404938316274</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-5.755524536888029</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-21.22223185749948</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-5.77327333645738</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-0.7348282702247214</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.3481275305736762</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-0.3152668224044446</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-0.9191414408992737</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-3.130068055491861</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-2.54493533882331</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-4.124630779108136</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-10.65189862794437</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-3.22767521773447</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-0.9268894637728248</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-0.5674503528797097</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-0.3136883368459886</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-2.171844453643929</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-2.783531457272524</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-1.549438533953887</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-8.08593924881915</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-7.861789403311551</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-6.820874249295284</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-0.9003324933694258</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.3179685883776107</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-0.7810155326143511</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-2.556597795106701</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-2.919318133029942</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-1.666785697368049</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>RUG786</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-8.873283058875463</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-6.824697618717025</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-4.983873332539301</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-0.8899346632270149</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-1.372183748962055</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-0.7356361506996447</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-3.684825902649039</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-3.068061442068808</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-1.506571223092266</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-7.618225469444325</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-14.16421415747838</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-7.088013405317216</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-1.136568895271195</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.1745688652862639</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-0.5819995999118074</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-2.332059739956089</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-2.982220738750298</v>
+      </c>
+      <c r="J155" t="n">
+        <v>-1.823154697577812</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>-7.341145720484984</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-25.40997443566059</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-15.86213136943666</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-1.506661866760015</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.870743248520564</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1.104038868689005</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-2.883433592024049</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-3.484160296828665</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-3.014139456845229</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-7.397454784729899</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-14.85536568994575</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-9.836354274156031</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.8242434532344567</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-0.08301726953461036</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-0.641706970419084</v>
+      </c>
+      <c r="H157" t="n">
+        <v>-2.622213318019331</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-3.172442192961531</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-2.198695900296689</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>-5.392026240539566</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-10.87181742495725</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-3.711933194788067</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-1.349225046137443</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.2889609555419161</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-0.4898938172618585</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-3.301937215168794</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-2.884603136726424</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-2.229228165158961</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-8.293555495731423</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-26.77175246127029</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-11.66865608171167</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-1.521630069153918</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.2659038419994199</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-0.6609208641669018</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-6.487643819264741</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-3.060066610159937</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-3.318729590305249</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-6.542620925546253</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-21.41806441107498</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-7.75153495659287</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-0.3178306416513384</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.4455170374951612</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-0.8147503895145106</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-0.6196644165855532</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-2.607658207854875</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-3.049832803563511</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-8.624851133210832</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-15.36067425844938</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-11.40444797761885</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-0.203025887047654</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.07723824978913973</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1.216230784290196</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-4.352482763279554</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-3.221393757724294</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-3.00427439619954</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-8.986586794467449</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-11.86719496529006</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-5.412908738138483</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-1.258291842388126</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.2512460522754426</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-0.4870140360698759</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-3.503665537443861</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-2.944545273623004</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-1.62513729534373</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-8.121775359040006</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-18.64155377412768</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-9.916509956935082</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-0.8019018659745778</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.01191454182438069</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-0.8367036240537588</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-2.464345454526105</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-2.656340697027769</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-2.652011090256927</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>-5.989891023010691</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-19.47105912400356</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-6.718725903030719</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-1.188923908474146</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.1540801509476037</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-0.545090736216399</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-2.321781546411978</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-3.047791114758849</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-2.910912251377026</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>-7.109108558937397</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-17.2004025410017</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-8.884228410205829</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-0.5420282566196978</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.4381157643674529</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-0.6354767368723416</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-5.333997642319879</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-2.932234791713725</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-2.386522716928661</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/outputs/c__Clostridia.xlsx
+++ b/outputs/c__Clostridia.xlsx
@@ -20,6 +20,7 @@
     <sheet name="glv-t" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="f__Atopobiaceae-t" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="f__Bacteroidaceae-t" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="c__Clostridia_pred-t" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -51220,6 +51221,4757 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Acetivibrionales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Clostridiales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Eubacteriales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>o__Saccharofermentanales</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>o__TANB77</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>o__Tissierellales</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG518</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-12.08934873013084</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-29.81416543509361</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-19.1774430506559</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2.1219097246324</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.286956306061204</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-2.098386436899426</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-10.44939292264694</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-3.392502727505154</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-4.542247785282189</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG491</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-8.605928343270024</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-21.38081756492744</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-7.204379154354759</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-3.409399453104485</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.732786877149556</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.459179691912974</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-13.06328523270112</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-3.01456237740856</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.862819359976398</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG235</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-14.10326933891445</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-42.77406454180872</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-20.77045811463164</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.7332494783816731</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.187445191075958</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-3.643492997716451</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-13.05306331624693</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2.943896355736371</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-4.581529977998312</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG313</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-11.94912544459068</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-44.31626456570267</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-15.30391379399364</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.255041620921461</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.455353948945175</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2.182905759071256</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-8.742881998249302</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-3.013805515354534</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-4.130073161374001</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-11.00198922524282</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-34.46542950289835</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-11.78086045678704</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3.148724848666884</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.327613261269219</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2.041724873721864</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-6.990078432148551</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-2.794583635190159</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-3.831452652984983</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-11.53952673790319</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-47.03845781399193</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-9.500093808686374</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-3.237287137755656</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.984244373792909</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2.008712726967546</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-12.99581435448462</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-3.150277584790463</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-6.170451626888218</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG158</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-8.094170028010556</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-33.24508101678598</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-16.79636743732502</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.63837554359724</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.519669194935033</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.802517585975779</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-15.34889405932233</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-3.627934204211971</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-4.103314391557248</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG381</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-11.36262679630465</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-43.13232433156359</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-10.86985537643535</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5392427822037016</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3.03378156494638</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1.12488019522091</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-8.785629224976869</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-3.260889744629044</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-3.564073054682237</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG096</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-9.213843792434361</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-25.65855868645955</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-10.29523902097311</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6238762371580086</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3.260636697932937</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1.103782532826207</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-7.421308799343097</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-3.05729255654522</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-4.456280155858734</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.744765776621971</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-37.80225051090498</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-11.2174856779236</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-2.07715453275204</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.916037547010453</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1.821055276467394</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-11.13592441881423</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-2.353210959397723</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-4.346230625373234</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-19.16413454714285</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-43.28467761292251</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-19.59751604514757</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-3.288742065945025</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.857908015620734</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-3.442317850846911</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-23.04042975318504</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-2.635397726944481</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-6.837362167923341</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG027</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-8.133933723241876</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-34.72070753506022</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-23.00114835130515</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.611257005906292</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.647587419752463</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1.777858000900623</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-11.12405769582422</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-3.017440176504592</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-5.010103900114203</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG215</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-5.190257568339813</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-24.13838504582718</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-12.52948406653149</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.642526147803632</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.35228056687632</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2.481048569542244</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-9.024170336804058</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-3.267286173984791</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-5.90255325651287</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG248</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-6.890800712517735</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-29.53926829408548</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-7.786041971811021</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.8621937235627175</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.336918727121151</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.9189001015392033</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-8.528216216003539</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-3.184239747181229</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-4.004408762408616</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG185</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-9.288621543167459</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-16.19951304307726</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-22.21715478361299</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.479291291687622</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-2.420691460022356</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-3.083677203425017</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-12.40775959820093</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2.640786404357292</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-4.351159451024074</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG226</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-6.436685452768853</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-18.22709019550579</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-10.54280712812988</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.208325603527009</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-3.129315573111966</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.9884328480084583</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-8.825552323212007</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-2.312554838045819</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-2.853645727775887</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG475</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.993290827209938</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-35.28480910331407</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-12.53504826256395</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.3969968612390245</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.583151843572576</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2.186094042751945</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-15.20175890116482</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-4.211425867111062</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-5.445479447538987</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG251</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-11.10477731925875</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-34.71560162221311</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-8.140601577020302</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5586157734599334</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-2.599862271428374</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.8527076120912102</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-1.801908435632752</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-3.168769536186116</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-2.740478591066415</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG223</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-11.03694338259917</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-32.21441332788947</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-9.862280262368314</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.875536582534757</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-5.26634024938073</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1.083611575416615</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-7.522335982781448</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-3.366822557173297</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1.625716898978599</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG303</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-19.41984022584845</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-47.88802396632625</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-21.06476983534193</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2.370793579072787</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.908765571951008</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-3.625321298751732</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-19.20052787328098</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-3.219911444972501</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-6.12519097542852</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG735</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-11.28754157534372</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-45.97266378092279</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-13.56716096771226</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.797160994613309</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.8730021667329853</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.524352776813408</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-6.498161153077355</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-3.335135456912454</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-2.782813388832924</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG342</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-6.823609879384048</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-23.58662368299956</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-7.119611628464735</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.219740983582859</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.019127523263506</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.445962840096119</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-9.093517271526641</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-2.605104587124522</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-5.054395812621792</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG149</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-9.292334683102874</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-30.8688888756746</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-13.87711057131655</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.557100508561003</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.090543976687738</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-2.171649490192081</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-19.31932387631703</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-4.600480631165294</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-5.054457114568228</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG154</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-14.45756143592854</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-61.79185102700816</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-18.40975131548925</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.900896181742635</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-5.641772124578637</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2.728385554351217</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-14.67358137835595</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-4.320313643176813</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-6.040807648760752</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-10.76287624326688</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-43.55987932294601</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-11.63214832737392</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-3.608953627703829</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.424796671955205</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2.578397718440685</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-15.71320357537892</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-2.655946361965871</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-6.799143171154975</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG285</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-9.100007691392975</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-31.55680777177661</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-8.975812655101205</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8901530914764398</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3.400502748678428</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.9097252356017176</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-4.182280715600522</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-2.53633021958757</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-1.386098669380426</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG015</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-8.175572272310248</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-18.7584829465561</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-18.0667935952799</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.309497985797998</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-3.526735223354739</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-3.225957546740752</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-8.077419876124001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-2.071328963233947</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-3.703868940484625</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG775</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-12.64803721443139</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-59.82850680588945</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-19.50216754836891</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.191350751237589</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-2.978313251575806</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2.782361108418567</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-6.2645314470224</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-3.871187037026635</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-3.66442405586624</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG612</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-9.71468552516097</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-35.23156221796431</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-6.874831634050706</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.044646964023009</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.4391212817198842</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.4629691977194159</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-5.018482138306063</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-2.691105946840271</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-2.057251229198467</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-17.45473127845596</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-48.5911209138979</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-15.08380971970728</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-3.815046254624401</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7.554855082294067</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-3.146311318886795</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-20.16995009542415</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-2.931766613416893</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-7.825396913978461</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG091</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-7.511114016650154</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-19.10364498713053</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-23.26360002220061</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.137323497830091</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-6.071937243042131</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-2.271611779192684</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-12.50851930180008</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-2.278306603622752</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-2.483876787207505</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG009</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-5.525134295168065</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-22.42287801009605</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-13.10474039956401</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.202938399025359</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-2.479585886168801</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-2.415081075122893</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-10.98553199061388</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-1.430015286450729</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-4.593924700387611</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG088</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-8.073339207571777</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-27.8846337226239</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-9.194970077692135</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-2.26280206381253</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4.220758086340966</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1.684855073713244</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-12.0295623626177</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-3.73824419370007</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-4.160643456170044</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-12.87774321883405</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-40.54731618212775</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-11.88089759710549</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-2.253680494409912</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.530496552503998</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1.674146004050296</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-7.111491109038242</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-3.60118298550957</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-4.087554231552352</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG104</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-9.706990633160457</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-37.70761744798627</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-19.92065400354991</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-1.303942442992645</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.469086924640199</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-2.434543382109193</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-9.939731744854576</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-3.034706917573499</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-5.023157725453058</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG098</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-4.546503899542517</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-32.14645043454646</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-11.68109843526856</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1.172925972240247</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.159910607737044</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.9922445052600599</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-14.04195295855286</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-3.54940291657083</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-4.964698199624683</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>hRUG896</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-8.429656958721718</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-33.91320837744151</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-9.493021012058765</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8283315606423517</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-3.621644387441439</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.7969184434061388</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-5.058440913648191</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-2.744274153324269</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1.177162954365865</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-6.055668198728872</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-31.79738454191772</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-9.019359409166293</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-2.30777506449342</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.857203085296686</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1.569742555985578</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-5.455669424988568</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-3.6310106613772</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-3.674790147655549</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG635</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-7.991921403045471</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-47.35022646390044</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-15.83792322164276</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.703995742079386</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-3.559595948074423</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.9246711007266264</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-7.400489133317392</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-2.777208510816127</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1.3632274051637</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG764</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-4.915519362838149</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-37.03712773451112</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-8.738080810757499</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.606982064802987</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-3.622711610755489</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.6746035626176188</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-4.917801613518763</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-3.009413989662356</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-3.412843906499252</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG327</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-9.5351654833045</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-41.65995168539269</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-14.77605172518044</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1.975402379951965</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.167709755722076</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1.978729321371053</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-12.3260395079626</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-3.984772331618101</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-4.571341545499728</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-10.56049442543718</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-38.89209702965627</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-8.75816225834016</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-2.827322673368613</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.496117844503712</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1.890593119205223</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-8.082022909184888</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-2.441330601806023</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-5.041401966535335</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-11.03508371204436</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-37.77865549230467</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-13.26497689303543</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-3.557612402676519</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6.957960752774527</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-2.656973372406617</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-16.85731804167715</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-3.020568650742262</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-6.698645597245003</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-6.798054969388959</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-33.29927484446254</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-8.5849765672736</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-2.86516771128302</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.869017932987499</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-2.099950765400789</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-12.33648075033696</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-3.413488060183049</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-5.270391930229025</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG669</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-7.184445979875974</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-35.11466232290795</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-20.27737070424833</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.971525039877961</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4.70812922994468</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-2.03233659788035</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-12.68286717868579</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-3.947405722741806</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-4.889056624834289</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG511</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-4.545113895933888</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-29.37600362766845</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-15.19069479919542</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.2819172061533268</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7986515597300311</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.322865347378066</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-7.458908321890685</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-2.397466489176778</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-3.94687006900933</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>hRUG903</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-10.50990967829276</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-43.30547041480945</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-6.833379192467978</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-2.214923195667832</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.877341817580722</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1.784153027103165</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-6.427547092139602</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-3.833431757777719</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-1.854591366218862</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG294</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-15.30358929838055</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-40.76746265767943</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-19.45705997027386</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-3.983346264138337</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6.998398970993624</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-2.273165628051152</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-17.58241278758414</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-2.867546898651414</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-9.530993323742333</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG814</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-7.462883715690359</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-31.593626390981</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-12.91220516935439</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-2.19437759208244</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.707278355691001</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1.492183605342479</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-11.49275965171665</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-3.885817875739955</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-5.08428973422785</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-9.917235235870686</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-34.6025598140082</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-7.352381235899049</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-3.289546067494372</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4.344044286926557</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1.977620639440859</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-11.93851005829638</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-1.910982937831085</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-4.533124529585115</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG811</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-8.029168613909777</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-14.77197869646476</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-10.74020057600528</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2179227232251032</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-3.667118695694487</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.7936511140841722</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-6.156324700522729</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-3.736097029858438</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-2.160721352107597</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG738</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-15.37793211120764</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-47.51856096497888</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-18.4058961103356</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-2.155925178664212</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5.082385933288995</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-2.36855984567962</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-8.30394282983009</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-4.086334994618528</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-3.67784749590531</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG809</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-11.17177144168222</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-12.88789751394966</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-28.90839674417882</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.550092589750762</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-2.578956950979014</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-2.835863672802712</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-9.164923658901605</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-2.232391106254843</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-4.698242340173822</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG268</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-13.28447216524051</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-32.46605599485721</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-15.13799747080534</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.410019165875895</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-4.832114466626712</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.103631003071274</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-11.03698295107875</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-3.704343884574948</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-2.731327221846281</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG439</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-21.5577422548177</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-61.06777691864433</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-26.67255484858553</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1.239410219297866</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.920950315520342</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-4.671692616145711</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-20.60728689292029</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-3.617321028293135</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-6.073140331353954</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG115</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-24.03553306377707</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-81.18993801514225</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-22.12278837514241</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.676161215238762</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-4.548197169177246</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-2.67904398993624</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-18.63229469569098</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-3.716636549880828</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-5.349464301794018</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-11.1332892790826</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-36.70005780037572</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-8.462925805856441</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-2.042739967360593</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4.171779015412701</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-2.134645324015372</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-6.466617084436033</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-3.485678519750704</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-3.759860721386323</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG267</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-5.953879422157184</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-31.77982140371868</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-14.82707490922716</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.485384427550018</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.410126335872018</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1.732083136902786</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-10.65341054324553</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-3.964930693600992</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-4.188774918381934</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG529</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-5.938950001005964</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-25.73486394346309</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-12.02056219623509</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1.877177012887082</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.358946485036271</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1.309173913478416</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-6.979811592968423</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-2.952421572910708</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-4.291535066153196</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG757</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-11.15020640566226</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-54.66942907825129</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-10.34690046005273</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-2.411198458187552</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.180613125783138</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1.514525421813962</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-11.37790169794626</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-3.133150275176978</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-6.548749512803111</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG825</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-5.668749949230593</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-24.80400376500954</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-13.27548421909102</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2.108557473645971</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.182141220571151</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.9940045445832426</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-11.90580970266542</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-4.13699239516306</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-3.957427746411817</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG798</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-20.77050042674832</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-24.08744770737572</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-27.41471799358333</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-3.362904530766988</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4.279237335899185</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-2.055890018388558</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-29.33065326474452</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-1.758702309090463</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-7.763184085128903</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG183</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-2.644493742368045</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-28.96226088911714</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-14.52385077793395</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.9043339049203094</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.767883466461885</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1.134136125379322</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-14.74258259984623</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-3.849818284216332</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-3.89061657998323</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>RUG694</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-2.254269773215446</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-22.99971396058999</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-10.45372099959909</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.31367834869425</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-3.648603761511005</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1.531351792423618</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-5.402330005340164</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-2.976330847203074</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-3.094592532469512</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG573</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-3.893052308432575</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-42.00876809860426</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-15.52852728955499</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.879133226387024</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.298527556499018</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2.346128511086335</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-15.94922931179161</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-2.777725763454572</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-5.037252687599723</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG671</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-9.09994899783252</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-25.81750817214794</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-19.22304553340899</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.77480475467342</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-2.734524236661072</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-2.586864133320877</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-9.978459212773361</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-3.645738754125657</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-4.571111676308708</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG322</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-15.18638095016546</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-45.81661491840576</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-13.42417414668977</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-1.669642175280288</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3.943999434387611</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-2.312886755018591</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-9.597117680065637</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-3.253852805618865</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-4.528192469828705</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG824</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-11.14010538641592</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-46.4667892032714</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-13.15380451430931</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6509265064351218</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.9732992941878209</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1.637744676032485</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-3.793686677912945</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-3.068379368638352</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-3.551226088586086</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG128</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-9.453198831198328</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-20.51938468556984</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-17.74480691496499</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.349881648395408</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-4.1449503657362</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-2.374844831518884</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-6.100748042963095</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-3.17062076976752</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-3.681531693674536</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-15.56791571343258</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-51.18972188059471</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-17.12947590598233</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-3.477768312757837</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6.992995010227776</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-3.314277725149565</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-20.81059999525385</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-2.611339837670521</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-8.130093670967076</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG222</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-8.52056939563675</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-28.30770034147256</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-19.65118766613131</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.99942302806143</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-3.530013511126195</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-2.168527134791034</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-5.395528254502402</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-2.938773288591321</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-3.46596902458804</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG453</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-18.26381405746699</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-64.80673439733798</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-29.2182335456701</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.590289481287467</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6.06492137521337</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-5.398154054130988</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-24.85161779471636</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-3.642281585971485</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-8.881034780009843</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-14.05578664553969</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-34.14430602203992</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-13.07617116876568</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-3.533238281412275</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8.017469024857499</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-2.941773167575936</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-18.530960617492</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-2.937938758481872</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-6.757772603205186</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG542</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-11.29541188835115</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-53.12266772211014</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-17.11394495957511</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-1.448364956604731</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.341108629033279</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1.696287650334065</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-13.25262189450707</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-2.861488410845396</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-5.91505898754531</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG512</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-10.10053309845087</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-44.91671697093602</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-12.82893950847399</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.059894967283086</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.4191545171792704</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-2.019019350055732</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-2.954777762781262</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-3.248079222388826</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-2.890685393411978</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG670</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-7.207084468261536</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-40.29900638541321</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-15.85143711567894</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-1.353465049506652</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.083309960483002</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1.861439178212761</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-13.4692994981162</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-4.339438038207595</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-3.970830462647673</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG010</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-8.347053132948115</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-30.35839080801018</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-20.43897524216928</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-1.647259671676636</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3.257911308084623</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-2.276862439300663</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-11.15164047698465</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-3.126512291062624</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-5.237473300292125</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG213</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-12.08465510349759</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-37.73685763558531</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-16.67191753108527</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-1.655808115201208</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.619544089110364</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1.777401944458996</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-17.02894789536543</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-4.05699473482953</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-3.104992443436736</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG296</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-18.63655489919952</v>
+      </c>
+      <c r="C80" t="n">
+        <v>7.758221537562279</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-17.41186330171319</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1.370453979568302</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-7.603094394932778</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-2.575126429491743</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-21.98410060999198</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-1.752277443517775</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-3.350367283659674</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>o__Clostridiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG806</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-14.34804616361685</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-29.7031274149893</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-12.56726992214532</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-2.391267599751755</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.201014364869466</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1.319792265734473</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-11.16127639984458</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-2.988466096444847</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-3.934850414088598</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>hRUG859</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-9.211032744021159</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-58.88905311787284</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-10.44778369469975</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.512337692070977</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-1.566317806103087</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-2.410248796354674</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-8.973305221179029</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-3.467533860934457</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-4.210053523638108</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RUG681</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-9.445976907153357</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-36.22491112335558</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-10.90412034847579</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.09735640667846454</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-1.241932953821845</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1.322928355885409</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.6701037516528912</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-2.653036982304696</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-2.678229365054377</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-13.89302867764063</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-52.35216075089352</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-14.53319564812458</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-2.14276693463274</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5.807087288774722</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-3.280643662288538</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-16.24499069867551</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-3.513074569889624</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-7.282507851597044</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG762</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-8.703138651963586</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-28.61417901549091</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-2.951156461736995</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-1.628523059010903</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.96797501156176</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1.388316867260485</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-8.393180707937764</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-3.233442431049036</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-3.720991492474711</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-14.40690312668151</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-42.49273145593352</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-10.30712946618049</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-2.071208254717814</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.443178626046669</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-2.201323583578727</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-10.49074343556694</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-3.525742240787984</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-5.12066251386296</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-8.992521175266996</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-35.60660284433928</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-8.25098176945354</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-2.266691353098461</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4.15599830515914</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1.484924272215557</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-10.48790441052612</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-3.842702214400937</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-3.268277569179908</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG678</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-6.08618817401831</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-34.91911455367206</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-18.12694421168812</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0.8038700088451098</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.37980133124399</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1.639258788758653</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-10.1888012448161</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-3.342230136595507</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-5.778964906886526</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>hRUG851</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-3.371052125567631</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-25.48628428466683</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-16.28466781869033</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7460879797830817</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-3.252386288135062</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1.5332978623615</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-4.271398250587686</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-3.161229928313496</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-2.882735600957047</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-13.03134671149059</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-41.21256890409283</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-11.95169389797032</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-2.77118142957951</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3.858798667934177</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-2.53527961202688</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-6.280428359611658</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-3.055793142042518</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-3.75763994624366</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-10.5490660942736</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-47.42123396230444</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-11.00148861432625</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-4.097566310537837</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8.141770798273935</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-3.052031043509666</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-18.73584573380331</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-2.891562027813837</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-8.957142230346317</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG687</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-1.740606354027207</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-29.93204232636068</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-5.734618853830604</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.797851314213274</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-3.682553307537695</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.7549506377149062</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-2.88443270633273</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-2.537497735650281</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-2.263268307204015</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG816</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-12.0378097667152</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-24.21976834634346</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-12.74301657070015</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.166883365199612</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-3.170354758912581</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1.643220873933894</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-9.522373155938874</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-1.535054021630444</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-1.493104579878574</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-12.74065866607903</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-19.8041785138421</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-10.38132216869849</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-2.447249365174411</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3.418380610398903</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-2.573785648461581</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-13.76865289211332</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-1.958386699393953</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-4.604314777585893</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG297</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-8.812362013299612</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-20.7993050484536</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-13.51499722936793</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.075963147102542</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-2.897577073871422</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1.423778948016276</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-10.21485434465782</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-2.889050101824515</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-2.686427395137815</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-13.93727186884576</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-36.78010093329025</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-8.710683770806686</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-3.041715020729181</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5.538856025182538</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-2.530684049917335</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-8.17214057636518</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-2.905229150031405</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-3.70419563317015</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-14.36127632583368</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-51.81539709666828</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-11.5276630098296</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-3.498721117506289</v>
+      </c>
+      <c r="F97" t="n">
+        <v>6.867308730066646</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-2.638804217989165</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-18.52334995328808</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-2.839826787395192</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-7.161129601603203</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-13.79497747813698</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-39.96908461572486</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-11.29272904984721</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-2.519401733163031</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5.910315266508585</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-2.571040275267121</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-9.717287666764969</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-3.714530348946837</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-4.364698257583461</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG592</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-2.181715391657058</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-28.53518172381974</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-9.544382952668736</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.9054026684905273</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.603532675531264</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.9959449026734958</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-10.79480203890827</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-3.693466519863721</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-5.402391829512341</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG231</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-9.265811339521539</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-38.15366722088675</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-11.25595792180354</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.342067468546727</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-2.724017552838944</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1.600897108142008</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-7.998259563305617</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-3.433990605804607</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-3.292617079906262</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-13.4309808537387</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-46.43466877897469</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-13.14247801955228</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-2.671150665772152</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6.506889495713962</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-2.804421786246826</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-17.40237502760886</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-2.702813637100112</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-6.547650776199935</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG393</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-7.281649100616272</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-31.23088851743394</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-14.50958520609879</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-2.104098193119343</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.995229501751916</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.7266712033160914</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-10.330924256966</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-4.570472302588948</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-4.903396845611558</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-12.32633526445836</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-46.31819300641486</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-10.55030091517485</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-4.323562813797799</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8.630650563868894</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-3.249724232096983</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-16.95005929613382</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-2.839714949594656</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-8.28680649159401</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG291</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-7.032032925316105</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-39.59429015271507</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-8.598173326401358</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.9894317798415048</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.400153637530343</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1.370696976193836</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-12.69295002660724</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-3.415416669520772</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-3.333667603626331</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG781</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-13.03395018529245</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-41.84776858389611</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-18.6804299565201</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.389890266228136</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-2.664687082300876</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-2.713358295640389</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-7.272708410265247</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-2.976812973483494</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-1.344645570461729</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-12.84755378546359</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-34.69294364105268</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-11.82469367747457</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-3.386698652384715</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5.110143922051226</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-2.341526516215998</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-8.119047815854925</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-3.120759629799155</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-2.756137397024177</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG066</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-8.635083872719738</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-12.90741141634036</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-9.718747975412708</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.9876268728794738</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-2.760451749165793</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1.569902123301118</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-16.11735396326304</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-2.266562154447601</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-3.362960895452225</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-13.28719829923575</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-54.56741526814806</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-14.01435527837172</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-3.573329082842018</v>
+      </c>
+      <c r="F108" t="n">
+        <v>8.543525912298314</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-3.598612834169884</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-18.32133236221725</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-3.241221846820444</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-7.863849479227855</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-11.28176024113794</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-46.50334399427124</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-13.63927661552558</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-2.996411652420386</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6.68200655500925</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2.772340119757736</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-17.13627960876871</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-3.033579342021395</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-7.67758363486695</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-15.35498031745389</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-35.46844058662339</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-11.07162449489258</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-2.919010751514075</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4.717820718242177</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2.409818474565842</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-10.70060375661657</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-3.078392291758947</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-3.629084778514513</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-17.715289623011</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-33.64296012782314</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-11.26934974462266</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-1.982179869049154</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.19876017520708</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1.922521211839111</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-16.78389967479757</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-2.8200134072565</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-3.272075833201737</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-11.66572975085865</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-30.46409186566858</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-9.24250232701422</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-3.164403026163712</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5.809557770000069</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2.583992801349289</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-8.172770220389078</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-3.071756574803657</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-4.749137982699566</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-13.56613953874661</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-49.76608646616477</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-12.8663797725085</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-2.358930380811719</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3.444330918894515</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1.823258739164606</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-14.44425237366346</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-1.870040038874836</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-4.36270810574004</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-12.58007106285797</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-42.65411956625521</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-15.05295119848261</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-3.454320107113378</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6.839660427220037</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2.84602624244516</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-17.98127688651869</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-2.716263571257364</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-6.614952551018267</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG498</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-8.800496076226844</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-47.04464989543306</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-17.84399403313339</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-1.329627585487206</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3.617445091034415</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2.41162772548495</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-14.0144397596303</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-2.907404473859371</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-6.417106846971695</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG391</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-12.7775970721865</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-32.64899593482508</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-15.23755537893732</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.49561152165062</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-2.944454903889204</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1.040160611031642</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-9.669587649271442</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-3.398272315126289</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-4.082764950681776</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG241</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-13.76912140658846</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-50.49818373321327</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-12.26835371146114</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-2.124650838291224</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3.286522796956034</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1.305242663420064</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-9.042916565395254</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-3.245611106876103</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-6.142269510503406</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG777</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-20.31431664433914</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-66.48838149889995</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-13.58528755393221</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-3.05693236846563</v>
+      </c>
+      <c r="F118" t="n">
+        <v>6.63817277069123</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2.920450239682179</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-10.51786792861402</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-3.285154354967617</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-7.873261758037218</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-14.22022029390937</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-44.70459913501538</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-15.61632170185061</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-3.347451477749086</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7.742489485884689</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-3.073795666655687</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-20.01951362999283</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-2.20627416319401</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-6.809829017218363</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG221</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-14.20758240864882</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-58.72965707149867</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-18.04754535960113</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-3.324811130958859</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5.14131845059613</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-3.869961006765667</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-16.34659024197102</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-2.945266102714932</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-6.430116558404707</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-11.69301739790645</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-26.1296662684462</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-8.416039519651548</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-2.547558072242499</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5.620507157857794</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2.467512870284966</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-11.98489355064098</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-3.190326264006471</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-3.194796092835369</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
